--- a/ETC/video_size.xlsx
+++ b/ETC/video_size.xlsx
@@ -1,16 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.200\remote\repos\umbrella\ETC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215FD138-0F80-4A4F-A835-F4FE43F327E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="7335" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
   <si>
     <t>w</t>
   </si>
@@ -39,12 +50,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -52,7 +63,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -60,15 +71,21 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,42 +134,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="27">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="25" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -477,119 +503,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.5546875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1920</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1080</v>
       </c>
       <c r="C2" s="2">
-        <f>A2/B2</f>
+        <f t="shared" ref="C2:C7" si="0">A2/B2</f>
         <v>1.7777777777777777</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1280</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <f>A3/$C$2</f>
         <v>720</v>
       </c>
       <c r="C3" s="2">
-        <f>A3/B3</f>
+        <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>720</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <f>A4/$C$2</f>
         <v>405</v>
       </c>
       <c r="C4" s="2">
-        <f>A4/B4</f>
+        <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>640</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <f>A5/$C$2</f>
         <v>360</v>
       </c>
       <c r="C5" s="2">
-        <f>A5/B5</f>
+        <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>400</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <f>A6/$C$2</f>
         <v>225</v>
       </c>
       <c r="C6" s="2">
-        <f>A6/B6</f>
+        <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>800</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <f>A7/$C$2</f>
         <v>450</v>
       </c>
       <c r="C7" s="2">
-        <f>A7/B7</f>
+        <f t="shared" si="0"/>
         <v>1.7777777777777777</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>800</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <f>A10/$C$11</f>
         <v>600</v>
       </c>
@@ -597,31 +626,31 @@
         <f>A10/B10</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>640</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>480</v>
       </c>
       <c r="C11" s="2">
         <f>A11/B11</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <f>480</f>
         <v>480</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <f>A12/$C$11</f>
         <v>360</v>
       </c>
@@ -630,72 +659,85 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>224</v>
+      </c>
+      <c r="B13" s="1">
+        <f>A13/$C$11</f>
+        <v>168</v>
+      </c>
+      <c r="C13" s="2">
+        <f>A13/B13</f>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>720</v>
       </c>
-      <c r="B15">
+      <c r="B16" s="1">
         <v>480</v>
-      </c>
-      <c r="C15" s="2">
-        <f>A15/B15</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>640</v>
-      </c>
-      <c r="B16" s="1">
-        <f>A16/$C$15</f>
-        <v>426.66666666666669</v>
       </c>
       <c r="C16" s="2">
         <f>A16/B16</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>480</v>
-      </c>
-      <c r="B17" s="1">
-        <f>A17/$C$15</f>
-        <v>320</v>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>640</v>
+      </c>
+      <c r="B17" s="3">
+        <f>A17/$C$16</f>
+        <v>426.66666666666669</v>
       </c>
       <c r="C17" s="2">
         <f>A17/B17</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>400</v>
-      </c>
-      <c r="B18" s="1">
-        <f>A18/$C$15</f>
-        <v>266.66666666666669</v>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>480</v>
+      </c>
+      <c r="B18" s="3">
+        <f>A18/$C$16</f>
+        <v>320</v>
       </c>
       <c r="C18" s="2">
         <f>A18/B18</f>
         <v>1.5</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>400</v>
+      </c>
+      <c r="B19" s="3">
+        <f>A19/$C$16</f>
+        <v>266.66666666666669</v>
+      </c>
+      <c r="C19" s="2">
+        <f>A19/B19</f>
+        <v>1.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
